--- a/apiData/guns.xlsx
+++ b/apiData/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>username</t>
   </si>
@@ -31,10 +31,7 @@
     <t>METHOD</t>
   </si>
   <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>EXPECT</t>
+    <t>ASSERT</t>
   </si>
   <si>
     <t>DATABASE_ASSERT</t>
@@ -64,10 +61,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>response_json["message"]</t>
-  </si>
-  <si>
-    <t>账号密码错误</t>
+    <t>self.response_json["message"] == 账号密码错误</t>
   </si>
   <si>
     <t>mysql-SELECT * FROM  sys_user WHERE account="laoji"</t>
@@ -79,13 +73,13 @@
     <t>1qaz@WSX</t>
   </si>
   <si>
-    <t>账号或密码为空！</t>
+    <t>self.response_json["message"] == 账号或密码为空！</t>
   </si>
   <si>
     <t>http://42.192.22.244:8089/login</t>
   </si>
   <si>
-    <t>请求成功</t>
+    <t>self.response_json["message"] == 请求成功</t>
   </si>
   <si>
     <t>forward</t>
@@ -151,13 +145,13 @@
     <t>null</t>
   </si>
   <si>
-    <t>请求接口不存在或用户未登录</t>
-  </si>
-  <si>
-    <t>deptId:must not be null</t>
-  </si>
-  <si>
-    <t>password:must not be blank</t>
+    <t>self.response_json["message"] == 请求接口不存在或用户未登录</t>
+  </si>
+  <si>
+    <t>self.response_json["message"] == deptId:must not be null</t>
+  </si>
+  <si>
+    <t>self.response_json["message"] == password:must not be blank</t>
   </si>
   <si>
     <t>page</t>
@@ -172,7 +166,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>response_json["msg"]</t>
+    <t>self.response_json["msg"] == 请求成功</t>
   </si>
   <si>
     <t>add_app</t>
@@ -187,7 +181,7 @@
     <t>search_user</t>
   </si>
   <si>
-    <t>response_json["data"]-userId-account=laoji</t>
+    <t>self.response_json["data"]-userId-account=laoji</t>
   </si>
 </sst>
 </file>
@@ -195,11 +189,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -246,8 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,16 +250,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,29 +273,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +296,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +333,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,32 +348,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -395,19 +389,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,109 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,65 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +588,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +624,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,16 +694,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,22 +715,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -745,92 +739,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,26 +882,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1260,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1272,16 +1251,16 @@
     <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="27.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:13">
+    <row r="1" ht="37" customHeight="1" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1297,10 +1276,10 @@
       <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1318,98 +1297,118 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="13">
+        <v>111111</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21">
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8">
+        <v>222222</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
         <v>111111</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:6">
-      <c r="A3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="22">
-        <v>222222</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:6">
-      <c r="A4" s="20"/>
-      <c r="B4" s="24" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="E4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" ht="17" customHeight="1" spans="1:6">
-      <c r="A5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="E5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:10">
-      <c r="A6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="21">
-        <v>111111</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1427,10 +1426,10 @@
   <sheetPr/>
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1449,13 +1448,13 @@
     <col min="12" max="12" width="8.11111111111111" customWidth="1"/>
     <col min="13" max="13" width="7.44444444444444" customWidth="1"/>
     <col min="14" max="14" width="9.44444444444444" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="19.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="18.5555555555556" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="13.6666666666667" customWidth="1"/>
     <col min="19" max="19" width="16.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="9.55555555555556" customWidth="1"/>
+    <col min="21" max="21" width="15.3333333333333" customWidth="1"/>
     <col min="22" max="22" width="15.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="13.6666666666667" customWidth="1"/>
     <col min="28" max="28" width="27.7777777777778" customWidth="1"/>
@@ -1463,37 +1462,37 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1514,10 +1513,10 @@
         <v>7</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>9</v>
@@ -1527,9 +1526,6 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="2" ht="82" customHeight="1" spans="1:31">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4">
         <v>111111</v>
@@ -1556,13 +1552,13 @@
         <v>111111</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="4">
         <v>25</v>
@@ -1571,36 +1567,33 @@
         <v>44153</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="S2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="4"/>
+      <c r="V2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -1611,7 +1604,7 @@
     </row>
     <row r="3" ht="77" customHeight="1" spans="1:31">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
         <v>111111</v>
@@ -1626,13 +1619,13 @@
         <v>111111</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="4">
         <v>25</v>
@@ -1641,23 +1634,20 @@
         <v>44153</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -1666,9 +1656,9 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" ht="43.2" spans="1:31">
+    <row r="4" ht="100.8" spans="1:31">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4">
         <v>111111</v>
@@ -1683,38 +1673,35 @@
         <v>111111</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="15">
         <v>44153</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -1723,9 +1710,9 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" ht="57.6" spans="1:31">
+    <row r="5" ht="115.2" spans="1:31">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>111111</v>
@@ -1737,16 +1724,16 @@
         <v>13311112222</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>25</v>
@@ -1755,23 +1742,20 @@
         <v>44153</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -2214,8 +2198,8 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="J2 F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2225,7 +2209,7 @@
     <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
@@ -2234,12 +2218,12 @@
     <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:14">
+    <row r="1" ht="25" customHeight="1" spans="1:13">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -2260,10 +2244,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -2274,11 +2258,8 @@
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="48" customHeight="1" spans="1:14">
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:13">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2286,31 +2267,28 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4"/>
@@ -2772,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2781,20 +2759,21 @@
     <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="25.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
     <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="8.22222222222222" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.3333333333333" customWidth="1"/>
     <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" spans="1:13">
+    <row r="1" ht="46.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2805,20 +2784,20 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -2829,41 +2808,35 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="72" customHeight="1" spans="1:18">
+    </row>
+    <row r="2" ht="64" customHeight="1" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>

--- a/apiData/guns.xlsx
+++ b/apiData/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468" activeTab="2"/>
+    <workbookView windowWidth="29010" windowHeight="13350" tabRatio="468" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -190,10 +190,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -240,9 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,15 +256,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -273,15 +264,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,21 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,24 +309,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,8 +324,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,61 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +449,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +497,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,37 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,19 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,30 +602,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -636,15 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +641,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,16 +694,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,112 +715,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,18 +1245,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="16.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.89166666666667" customWidth="1"/>
     <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.775" customWidth="1"/>
+    <col min="8" max="8" width="12.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="10.5583333333333" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1432,32 +1432,32 @@
       <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
-    <col min="5" max="5" width="10.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="6.55833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.11111111111111" customWidth="1"/>
-    <col min="8" max="8" width="11.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="10.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="9.11111111111111" customWidth="1"/>
-    <col min="12" max="12" width="8.11111111111111" customWidth="1"/>
-    <col min="13" max="13" width="7.44444444444444" customWidth="1"/>
-    <col min="14" max="14" width="9.44444444444444" customWidth="1"/>
-    <col min="15" max="15" width="19.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="18.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="9.10833333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.8916666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.10833333333333" customWidth="1"/>
+    <col min="12" max="12" width="8.10833333333333" customWidth="1"/>
+    <col min="13" max="13" width="7.44166666666667" customWidth="1"/>
+    <col min="14" max="14" width="9.44166666666667" customWidth="1"/>
+    <col min="15" max="15" width="19.225" customWidth="1"/>
+    <col min="16" max="16" width="18.5583333333333" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="13.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="16.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="16.1083333333333" customWidth="1"/>
     <col min="20" max="20" width="13.3333333333333" customWidth="1"/>
     <col min="21" max="21" width="15.3333333333333" customWidth="1"/>
     <col min="22" max="22" width="15.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="13.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="27.7777777777778" customWidth="1"/>
+    <col min="28" max="28" width="27.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
@@ -1656,7 +1656,7 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" ht="100.8" spans="1:31">
+    <row r="4" ht="94.5" spans="1:31">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" ht="115.2" spans="1:31">
+    <row r="5" ht="108" spans="1:31">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2198,24 +2198,24 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="6.89166666666667" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="19.775" customWidth="1"/>
+    <col min="7" max="7" width="18.775" customWidth="1"/>
+    <col min="8" max="8" width="24.1083333333333" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
+    <col min="14" max="14" width="9.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:13">
@@ -2750,28 +2750,28 @@
   <sheetPr/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
+    <col min="1" max="1" width="7.44166666666667" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="7.775" customWidth="1"/>
+    <col min="4" max="4" width="26.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="20.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.225" customWidth="1"/>
     <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="16.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.8" spans="1:12">
+    <row r="1" ht="42.75" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>

--- a/apiData/guns.xlsx
+++ b/apiData/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29010" windowHeight="13350" tabRatio="468" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="468"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>username</t>
   </si>
@@ -55,6 +55,9 @@
     <t>RESTORE</t>
   </si>
   <si>
+    <t>RELY_USER</t>
+  </si>
+  <si>
     <t>admin1</t>
   </si>
   <si>
@@ -64,7 +67,7 @@
     <t>self.response_json["message"] == 账号密码错误</t>
   </si>
   <si>
-    <t>mysql-SELECT * FROM  sys_user WHERE account="laoji"</t>
+    <t>mysql-SELECT user_id FROM  sys_user WHERE account="laoji"-1334676580743557122</t>
   </si>
   <si>
     <t>admin</t>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>account</t>
-  </si>
-  <si>
-    <t>RELY_USER</t>
   </si>
   <si>
     <t>M</t>
@@ -189,11 +189,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -247,9 +247,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +315,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,6 +339,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,51 +362,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +389,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,169 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,71 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,8 +604,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,145 +682,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,28 +1239,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="16.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.89166666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
     <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.775" customWidth="1"/>
-    <col min="8" max="8" width="12.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
-    <col min="10" max="10" width="10.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:12">
+    <row r="1" ht="37" customHeight="1" spans="1:13">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1297,26 +1298,29 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13">
         <v>111111</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1324,7 +1328,7 @@
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8">
         <v>222222</v>
@@ -1332,7 +1336,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1345,12 +1349,12 @@
     <row r="4" ht="16" customHeight="1" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1362,13 +1366,13 @@
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="13"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1380,23 +1384,23 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <v>111111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1432,67 +1436,67 @@
       <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.55833333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
+    <col min="5" max="5" width="10.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.10833333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.8916666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.10833333333333" customWidth="1"/>
-    <col min="12" max="12" width="8.10833333333333" customWidth="1"/>
-    <col min="13" max="13" width="7.44166666666667" customWidth="1"/>
-    <col min="14" max="14" width="9.44166666666667" customWidth="1"/>
-    <col min="15" max="15" width="19.225" customWidth="1"/>
-    <col min="16" max="16" width="18.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.11111111111111" customWidth="1"/>
+    <col min="8" max="8" width="11.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="10.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="9.11111111111111" customWidth="1"/>
+    <col min="12" max="12" width="8.11111111111111" customWidth="1"/>
+    <col min="13" max="13" width="7.44444444444444" customWidth="1"/>
+    <col min="14" max="14" width="9.44444444444444" customWidth="1"/>
+    <col min="15" max="15" width="19.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="18.5555555555556" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="13.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="16.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13.3333333333333" customWidth="1"/>
     <col min="21" max="21" width="15.3333333333333" customWidth="1"/>
     <col min="22" max="22" width="15.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="13.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="27.775" customWidth="1"/>
+    <col min="28" max="28" width="27.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1513,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>8</v>
@@ -1573,10 +1577,10 @@
         <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>38</v>
@@ -1587,7 +1591,7 @@
         <v>39</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
@@ -1656,7 +1660,7 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" ht="94.5" spans="1:31">
+    <row r="4" ht="100.8" spans="1:31">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1714,7 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" ht="108" spans="1:31">
+    <row r="5" ht="115.2" spans="1:31">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2202,20 +2206,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.89166666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.88888888888889" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="19.775" customWidth="1"/>
-    <col min="7" max="7" width="18.775" customWidth="1"/>
-    <col min="8" max="8" width="24.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="9.55833333333333" customWidth="1"/>
+    <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:13">
@@ -2244,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -2284,7 +2288,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2750,28 +2754,27 @@
   <sheetPr/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.44166666666667" customWidth="1"/>
+    <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="7.775" customWidth="1"/>
-    <col min="4" max="4" width="26.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="20.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="17.225" customWidth="1"/>
+    <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
     <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="16.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:12">
+    <row r="1" ht="46.8" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -2817,10 +2820,10 @@
         <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>53</v>
@@ -2832,7 +2835,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
